--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_66__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_66__Reeval_Sobol_Modell_1.2.xlsx
@@ -6121,19 +6121,19 @@
                   <c:v>1.902419805526733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.72036743164062</c:v>
+                  <c:v>94.72037506103516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.33837890625</c:v>
+                  <c:v>39.33838272094727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.57954978942871</c:v>
+                  <c:v>19.57955360412598</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93.18603515625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.6693115234375</c:v>
+                  <c:v>58.6693000793457</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>94.89973449707031</c:v>
@@ -6142,31 +6142,31 @@
                   <c:v>1.182852149009705</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.79244041442871</c:v>
+                  <c:v>22.79248237609863</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>97.20696258544922</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.82104396820068</c:v>
+                  <c:v>12.82107543945312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94.85910034179688</c:v>
+                  <c:v>94.85910797119141</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.709966659545898</c:v>
+                  <c:v>8.70998477935791</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>94.93110656738281</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.876856088638306</c:v>
+                  <c:v>1.876862049102783</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>40.0157470703125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.860852360725403</c:v>
+                  <c:v>1.860846519470215</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>94.90333557128906</c:v>
@@ -6175,19 +6175,19 @@
                   <c:v>54.08025741577148</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.914678335189819</c:v>
+                  <c:v>1.914684176445007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>91.67035675048828</c:v>
+                  <c:v>91.67036437988281</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>101.5612640380859</c:v>
+                  <c:v>101.5612564086914</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>94.89046478271484</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>86.37557220458984</c:v>
+                  <c:v>86.37557983398438</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1.877020716667175</c:v>
@@ -6196,19 +6196,19 @@
                   <c:v>94.38902282714844</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>88.48183441162109</c:v>
+                  <c:v>88.48185729980469</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>92.08789825439453</c:v>
+                  <c:v>92.087890625</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.879143238067627</c:v>
+                  <c:v>1.879149079322815</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38.36167144775391</c:v>
+                  <c:v>38.36166763305664</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>65.07159423828125</c:v>
+                  <c:v>65.07157135009766</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2.004932880401611</c:v>
@@ -6217,7 +6217,7 @@
                   <c:v>1.877785086631775</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.902213931083679</c:v>
+                  <c:v>1.902208089828491</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.877890944480896</c:v>
@@ -6226,7 +6226,7 @@
                   <c:v>96.98233032226562</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>70.49176788330078</c:v>
+                  <c:v>70.49177551269531</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.877502918243408</c:v>
@@ -6241,70 +6241,70 @@
                   <c:v>43.62934112548828</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>69.97872924804688</c:v>
+                  <c:v>69.97875213623047</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1.881759524345398</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41.52182388305664</c:v>
+                  <c:v>41.52183532714844</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.01404595375061</c:v>
+                  <c:v>2.014057636260986</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1.876750349998474</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.877861499786377</c:v>
+                  <c:v>1.877855658531189</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>95.8765869140625</c:v>
+                  <c:v>95.87659454345703</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4.78538179397583</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>95.37404632568359</c:v>
+                  <c:v>95.37403869628906</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>54.40482711791992</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>55.5149040222168</c:v>
+                  <c:v>55.51491165161133</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>90.33322143554688</c:v>
+                  <c:v>90.33322906494141</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1.884011387825012</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.13876724243164</c:v>
+                  <c:v>48.13876342773438</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>60.07600021362305</c:v>
+                  <c:v>60.07598876953125</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>88.40993499755859</c:v>
+                  <c:v>88.40991973876953</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.909204602241516</c:v>
+                  <c:v>1.909210443496704</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>64.21149444580078</c:v>
+                  <c:v>64.21148681640625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>62.64166259765625</c:v>
+                  <c:v>62.64165496826172</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1.881724238395691</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.877303004264832</c:v>
+                  <c:v>1.87730884552002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>94.92803192138672</c:v>
+                  <c:v>94.92802429199219</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>1.883535146713257</c:v>
@@ -6322,22 +6322,22 @@
                   <c:v>1.928677082061768</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>57.63555145263672</c:v>
+                  <c:v>57.63554382324219</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>74.22596740722656</c:v>
+                  <c:v>74.22598266601562</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>96.24131774902344</c:v>
+                  <c:v>96.24132537841797</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>68.18891143798828</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>94.91031646728516</c:v>
+                  <c:v>94.91033172607422</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>30.82115364074707</c:v>
+                  <c:v>30.8211498260498</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>94.73218536376953</c:v>
@@ -6346,16 +6346,16 @@
                   <c:v>79.36304473876953</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>94.91122436523438</c:v>
+                  <c:v>94.91123199462891</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>94.90583801269531</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>94.78392028808594</c:v>
+                  <c:v>94.783935546875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>94.91004943847656</c:v>
+                  <c:v>94.91004180908203</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>85.16873168945312</c:v>
@@ -6364,16 +6364,16 @@
                   <c:v>1.933051347732544</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.877385258674622</c:v>
+                  <c:v>1.877379417419434</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>92.4508056640625</c:v>
+                  <c:v>92.45079803466797</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>94.91085052490234</c:v>
+                  <c:v>94.91085815429688</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>94.90891265869141</c:v>
+                  <c:v>94.90890502929688</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1.720746397972107</c:v>
@@ -6382,10 +6382,10 @@
                   <c:v>1.909792542457581</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.888015270233154</c:v>
+                  <c:v>1.888021111488342</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>94.74948883056641</c:v>
+                  <c:v>94.74949645996094</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>94.66349029541016</c:v>
@@ -6394,34 +6394,34 @@
                   <c:v>1.876726746559143</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>32.48081588745117</c:v>
+                  <c:v>32.48079681396484</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94.46685791015625</c:v>
+                  <c:v>94.46686553955078</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>2.533337831497192</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>70.81044006347656</c:v>
+                  <c:v>70.8104248046875</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>88.69898223876953</c:v>
+                  <c:v>88.698974609375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>94.91370391845703</c:v>
+                  <c:v>94.91368865966797</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.898498177528381</c:v>
+                  <c:v>1.898492336273193</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>94.90142822265625</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.890090703964233</c:v>
+                  <c:v>1.890096545219421</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>34.44232177734375</c:v>
+                  <c:v>34.44233322143555</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>76.11857604980469</c:v>
@@ -7151,7 +7151,7 @@
         <v>87.86960000000001</v>
       </c>
       <c r="F3">
-        <v>94.72036743164062</v>
+        <v>94.72037506103516</v>
       </c>
       <c r="G3">
         <v>147</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.33837890625</v>
+        <v>39.33838272094727</v>
       </c>
       <c r="G4">
         <v>147</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.57954978942871</v>
+        <v>19.57955360412598</v>
       </c>
       <c r="G5">
         <v>147</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>58.6693115234375</v>
+        <v>58.6693000793457</v>
       </c>
       <c r="G7">
         <v>147</v>
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>22.79244041442871</v>
+        <v>22.79248237609863</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>12.82104396820068</v>
+        <v>12.82107543945312</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>84.36620000000001</v>
       </c>
       <c r="F13">
-        <v>94.85910034179688</v>
+        <v>94.85910797119141</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>8.709966659545898</v>
+        <v>8.70998477935791</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>1.876856088638306</v>
+        <v>1.876862049102783</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.860852360725403</v>
+        <v>1.860846519470215</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.914678335189819</v>
+        <v>1.914684176445007</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>91.50530000000001</v>
       </c>
       <c r="F22">
-        <v>91.67035675048828</v>
+        <v>91.67036437988281</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>98.18859999999999</v>
       </c>
       <c r="F23">
-        <v>101.5612640380859</v>
+        <v>101.5612564086914</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>92.36799999999999</v>
       </c>
       <c r="F25">
-        <v>86.37557220458984</v>
+        <v>86.37557983398438</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>88.48183441162109</v>
+        <v>88.48185729980469</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>92.08789825439453</v>
+        <v>92.087890625</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.879143238067627</v>
+        <v>1.879149079322815</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>38.36167144775391</v>
+        <v>38.36166763305664</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>65.07159423828125</v>
+        <v>65.07157135009766</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.902213931083679</v>
+        <v>1.902208089828491</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>70.49176788330078</v>
+        <v>70.49177551269531</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>87.6232</v>
       </c>
       <c r="F43">
-        <v>69.97872924804688</v>
+        <v>69.97875213623047</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>41.52182388305664</v>
+        <v>41.52183532714844</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2.01404595375061</v>
+        <v>2.014057636260986</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.877861499786377</v>
+        <v>1.877855658531189</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>89.79689999999999</v>
       </c>
       <c r="F49">
-        <v>95.8765869140625</v>
+        <v>95.87659454345703</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>94.2983</v>
       </c>
       <c r="F51">
-        <v>95.37404632568359</v>
+        <v>95.37403869628906</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>55.5149040222168</v>
+        <v>55.51491165161133</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>90.33322143554688</v>
+        <v>90.33322906494141</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>48.13876724243164</v>
+        <v>48.13876342773438</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>60.07600021362305</v>
+        <v>60.07598876953125</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>89.467</v>
       </c>
       <c r="F58">
-        <v>88.40993499755859</v>
+        <v>88.40991973876953</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.909204602241516</v>
+        <v>1.909210443496704</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>64.21149444580078</v>
+        <v>64.21148681640625</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>62.64166259765625</v>
+        <v>62.64165496826172</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.877303004264832</v>
+        <v>1.87730884552002</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>97.37220000000001</v>
       </c>
       <c r="F64">
-        <v>94.92803192138672</v>
+        <v>94.92802429199219</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>57.63555145263672</v>
+        <v>57.63554382324219</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>94.7551</v>
       </c>
       <c r="F71">
-        <v>74.22596740722656</v>
+        <v>74.22598266601562</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>98.4423</v>
       </c>
       <c r="F72">
-        <v>96.24131774902344</v>
+        <v>96.24132537841797</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>94.6035</v>
       </c>
       <c r="F74">
-        <v>94.91031646728516</v>
+        <v>94.91033172607422</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>30.82115364074707</v>
+        <v>30.8211498260498</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>97.7385</v>
       </c>
       <c r="F78">
-        <v>94.91122436523438</v>
+        <v>94.91123199462891</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>94.78392028808594</v>
+        <v>94.783935546875</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>98.0264</v>
       </c>
       <c r="F81">
-        <v>94.91004943847656</v>
+        <v>94.91004180908203</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.877385258674622</v>
+        <v>1.877379417419434</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>80.0817</v>
       </c>
       <c r="F85">
-        <v>92.4508056640625</v>
+        <v>92.45079803466797</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>95.37090000000001</v>
       </c>
       <c r="F86">
-        <v>94.91085052490234</v>
+        <v>94.91085815429688</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>91.53700000000001</v>
       </c>
       <c r="F87">
-        <v>94.90891265869141</v>
+        <v>94.90890502929688</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.888015270233154</v>
+        <v>1.888021111488342</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>91.271</v>
       </c>
       <c r="F91">
-        <v>94.74948883056641</v>
+        <v>94.74949645996094</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>32.48081588745117</v>
+        <v>32.48079681396484</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>93.8582</v>
       </c>
       <c r="F95">
-        <v>94.46685791015625</v>
+        <v>94.46686553955078</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>70.81044006347656</v>
+        <v>70.8104248046875</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>91.6399</v>
       </c>
       <c r="F98">
-        <v>88.69898223876953</v>
+        <v>88.698974609375</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>96.6401</v>
       </c>
       <c r="F99">
-        <v>94.91370391845703</v>
+        <v>94.91368865966797</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.898498177528381</v>
+        <v>1.898492336273193</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.890090703964233</v>
+        <v>1.890096545219421</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>34.44232177734375</v>
+        <v>34.44233322143555</v>
       </c>
     </row>
     <row r="104" spans="1:6">
